--- a/booking/booking.xlsx
+++ b/booking/booking.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neon\Dropbox\Py\booking_django\booking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateusz.swietlik\Dropbox\Py\booking_django_zp\booking\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1006BA39-6078-45A7-8E89-14893F196608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24270" windowHeight="13020"/>
+    <workbookView xWindow="23929" yWindow="-113" windowWidth="24267" windowHeight="13023" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Min Max" sheetId="1" r:id="rId1"/>
@@ -20,17 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -405,7 +395,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -522,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -540,14 +530,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -555,8 +546,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -871,27 +862,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -902,132 +893,132 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>120</v>
+      <c r="B3" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="C3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>5</v>
+      <c r="B4" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="C4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>10</v>
+      <c r="B6" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:3" ht="30.05" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30.05" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="13" spans="1:3" ht="30.05" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>106</v>
-      </c>
+      <c r="B17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1039,26 +1030,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1072,7 +1063,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -1098,7 +1089,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1108,11 +1099,11 @@
       <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1120,7 +1111,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1134,7 +1125,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1160,11 +1151,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" t="s">
         <v>52</v>
       </c>
       <c r="F7" t="s">
@@ -1174,7 +1165,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1182,7 +1173,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1196,7 +1187,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -1222,7 +1213,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>53</v>
       </c>
@@ -1233,7 +1224,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>74</v>
       </c>
@@ -1250,12 +1241,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F14" s="4" t="s">
         <v>93</v>
       </c>
@@ -1263,7 +1254,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
@@ -1283,7 +1274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
@@ -1303,7 +1294,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1323,7 +1314,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1331,7 +1322,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1351,7 +1342,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F20" s="3" t="s">
         <v>35</v>
       </c>
@@ -1365,7 +1356,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>82</v>
       </c>
@@ -1379,7 +1370,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>35</v>
       </c>
@@ -1392,14 +1383,11 @@
       <c r="D22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" t="s">
         <v>81</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1407,7 +1395,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1421,7 +1409,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -1441,7 +1429,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -1461,7 +1449,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1487,7 +1475,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>58</v>
       </c>
@@ -1501,7 +1489,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
@@ -1527,7 +1515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -1547,7 +1535,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -1567,7 +1555,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -1575,7 +1563,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1595,7 +1583,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -1621,7 +1609,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F36" t="s">
         <v>103</v>
       </c>
@@ -1635,21 +1623,18 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="F37" s="7" t="s">
+      <c r="F37" t="s">
         <v>114</v>
       </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>35</v>
       </c>
@@ -1662,11 +1647,11 @@
       <c r="D38" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -1674,7 +1659,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1694,7 +1679,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -1720,7 +1705,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F42" t="s">
         <v>103</v>
       </c>
@@ -1734,7 +1719,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>0</v>
       </c>
@@ -1745,7 +1730,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>35</v>
       </c>
@@ -1759,7 +1744,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1773,7 +1758,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -1787,7 +1772,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>68</v>
       </c>
@@ -1795,7 +1780,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>69</v>
       </c>
@@ -1803,7 +1788,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>71</v>
       </c>
@@ -1811,7 +1796,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -1819,7 +1804,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>27</v>
       </c>
@@ -1827,7 +1812,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>28</v>
       </c>
@@ -1835,20 +1820,20 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="7" t="s">
         <v>108</v>
       </c>
     </row>

--- a/booking/booking.xlsx
+++ b/booking/booking.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateusz.swietlik\Dropbox\Py\booking_django_zp\booking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neon\Dropbox\Py\booking_django\booking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1006BA39-6078-45A7-8E89-14893F196608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23929" yWindow="-113" windowWidth="24267" windowHeight="13023" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23925" yWindow="-120" windowWidth="24270" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Min Max" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="120">
   <si>
     <t>Booking</t>
   </si>
@@ -344,15 +343,9 @@
     <t>1 hotel na początek</t>
   </si>
   <si>
-    <t>w hotelu szukamy pokoi</t>
-  </si>
-  <si>
     <t>szukanie po wielu hotelach</t>
   </si>
   <si>
-    <t>1 pokój od razu bookowanie</t>
-  </si>
-  <si>
     <t>bajer</t>
   </si>
   <si>
@@ -365,9 +358,6 @@
     <t>weryfikacja właściciela obiektu</t>
   </si>
   <si>
-    <t>każdy pokój osobno</t>
-  </si>
-  <si>
     <t>podawanie ilości pokoi przy tworzeniu pokoi</t>
   </si>
   <si>
@@ -390,12 +380,18 @@
   </si>
   <si>
     <t>paginacja</t>
+  </si>
+  <si>
+    <t>Bookowanie jednego pokoju</t>
+  </si>
+  <si>
+    <t>Przegląd pokoi w hotelu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -540,14 +536,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -862,27 +858,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="13"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -890,10 +886,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -901,32 +897,32 @@
         <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -934,10 +930,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
@@ -945,7 +941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>95</v>
       </c>
@@ -953,28 +949,28 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30.05" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30.05" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -982,7 +978,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30.05" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>97</v>
       </c>
@@ -990,7 +986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>104</v>
       </c>
@@ -998,26 +994,24 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>112</v>
-      </c>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
       <c r="B17" s="2"/>
     </row>
   </sheetData>
@@ -1030,26 +1024,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" customWidth="1"/>
-    <col min="2" max="2" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1063,7 +1057,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -1089,7 +1083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1103,7 +1097,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1111,7 +1105,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1125,7 +1119,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1151,7 +1145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -1165,7 +1159,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1173,7 +1167,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1187,7 +1181,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -1213,7 +1207,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>53</v>
       </c>
@@ -1224,7 +1218,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>74</v>
       </c>
@@ -1241,12 +1235,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" s="4" t="s">
         <v>93</v>
       </c>
@@ -1254,7 +1248,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
@@ -1274,7 +1268,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
@@ -1294,7 +1288,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1314,7 +1308,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1322,7 +1316,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1342,7 +1336,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F20" s="3" t="s">
         <v>35</v>
       </c>
@@ -1356,7 +1350,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>82</v>
       </c>
@@ -1370,7 +1364,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>35</v>
       </c>
@@ -1387,7 +1381,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1395,7 +1389,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1409,7 +1403,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -1429,7 +1423,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -1449,7 +1443,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1475,7 +1469,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>58</v>
       </c>
@@ -1489,7 +1483,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
@@ -1515,7 +1509,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -1535,7 +1529,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -1555,7 +1549,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -1563,7 +1557,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1583,7 +1577,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -1594,7 +1588,7 @@
         <v>61</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>35</v>
@@ -1609,7 +1603,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
         <v>103</v>
       </c>
@@ -1623,7 +1617,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>64</v>
       </c>
@@ -1631,10 +1625,10 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="F37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>35</v>
       </c>
@@ -1648,10 +1642,10 @@
         <v>18</v>
       </c>
       <c r="F38" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -1659,7 +1653,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1673,13 +1667,13 @@
         <v>42</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -1690,7 +1684,7 @@
         <v>66</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>35</v>
@@ -1705,7 +1699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
         <v>103</v>
       </c>
@@ -1719,7 +1713,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>0</v>
       </c>
@@ -1727,10 +1721,10 @@
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="F43" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>35</v>
       </c>
@@ -1744,7 +1738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1758,7 +1752,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -1772,7 +1766,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>68</v>
       </c>
@@ -1780,7 +1774,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>69</v>
       </c>
@@ -1788,7 +1782,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>71</v>
       </c>
@@ -1796,7 +1790,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -1804,7 +1798,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>27</v>
       </c>
@@ -1812,7 +1806,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>28</v>
       </c>
@@ -1820,7 +1814,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>83</v>
       </c>
@@ -1834,7 +1828,7 @@
         <v>84</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
